--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration-requestdepartment.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration-requestdepartment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-16</t>
+    <t>2022-07-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration-requestdepartment.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration-requestdepartment.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0a</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration-requestdepartment.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration-requestdepartment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="105">
   <si>
     <t>Property</t>
   </si>
@@ -577,9 +577,7 @@
       <c r="A13" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>22</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration-requestdepartment.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration-requestdepartment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="132">
   <si>
     <t>Property</t>
   </si>
@@ -334,8 +334,92 @@
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>Extension.value[x].id</t>
+  </si>
+  <si>
+    <t>Extension.value[x].extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Extension.value[x].coding</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_Department_SsMix_VS</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>Extension.value[x].text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
 </sst>
 </file>
@@ -650,7 +734,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ6"/>
+  <dimension ref="A1:AJ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -659,9 +743,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.59765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="27.703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.25390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
@@ -683,18 +767,18 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="19.625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="58.84765625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="23.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="46.53125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1279,16 +1363,14 @@
         <v>75</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="AB6" s="2"/>
       <c r="AC6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="AE6" t="s" s="2">
         <v>100</v>
@@ -1303,10 +1385,520 @@
         <v>75</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>99</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P7" s="2"/>
+      <c r="Q7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE7" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F8" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P8" s="2"/>
+      <c r="Q8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AF8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J9" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P9" s="2"/>
+      <c r="Q9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AF9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="J10" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="O10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P10" s="2"/>
+      <c r="Q10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W10" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="X10" s="2"/>
+      <c r="Y10" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="Z10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AF10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI10" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="J11" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="O11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P11" s="2"/>
+      <c r="Q11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration-requestdepartment.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration-requestdepartment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="110">
   <si>
     <t>Property</t>
   </si>
@@ -348,78 +348,10 @@
     <t>valueCodeableConcept</t>
   </si>
   <si>
-    <t>Extension.value[x].id</t>
-  </si>
-  <si>
-    <t>Extension.value[x].extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Extension.value[x].coding</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
     <t>preferred</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_Department_SsMix_VS</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>Extension.value[x].text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
 </sst>
 </file>
@@ -734,7 +666,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ11"/>
+  <dimension ref="A1:AJ7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -743,9 +675,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="27.703125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="19.59765625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="22.25390625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
@@ -773,12 +705,12 @@
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="23.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="46.53125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1451,13 +1383,11 @@
         <v>75</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X7" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="X7" s="2"/>
       <c r="Y7" t="s" s="2">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="Z7" t="s" s="2">
         <v>75</v>
@@ -1491,414 +1421,6 @@
       </c>
       <c r="AJ7" t="s" s="2">
         <v>99</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F8" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J8" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K8" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AF8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J9" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K9" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N9" s="2"/>
-      <c r="O9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I10" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="J10" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="K10" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W10" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="X10" s="2"/>
-      <c r="Y10" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="Z10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE10" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="AF10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI10" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AJ10" t="s" s="2">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F11" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="J11" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
-        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration-requestdepartment.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration-requestdepartment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="111">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-31</t>
+    <t>2022-03-16</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -247,6 +247,9 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t>依頼科</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -685,7 +688,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="60.40234375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="37.17578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -851,7 +854,7 @@
         <v>75</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>22</v>
@@ -914,10 +917,10 @@
         <v>77</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>75</v>
@@ -925,7 +928,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -936,7 +939,7 @@
         <v>76</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>75</v>
@@ -948,13 +951,13 @@
         <v>75</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1005,13 +1008,13 @@
         <v>75</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>75</v>
@@ -1020,12 +1023,12 @@
         <v>75</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1048,13 +1051,13 @@
         <v>75</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>30</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1093,19 +1096,19 @@
         <v>75</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AC4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>76</v>
@@ -1117,7 +1120,7 @@
         <v>75</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>75</v>
@@ -1125,7 +1128,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1133,10 +1136,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>75</v>
@@ -1148,16 +1151,16 @@
         <v>75</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -1207,13 +1210,13 @@
         <v>75</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>75</v>
@@ -1222,12 +1225,12 @@
         <v>75</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1238,7 +1241,7 @@
         <v>76</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>75</v>
@@ -1250,13 +1253,13 @@
         <v>75</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1295,40 +1298,40 @@
         <v>75</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>75</v>
@@ -1338,7 +1341,7 @@
         <v>76</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>75</v>
@@ -1350,13 +1353,13 @@
         <v>75</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1383,11 +1386,11 @@
         <v>75</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="X7" s="2"/>
       <c r="Y7" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Z7" t="s" s="2">
         <v>75</v>
@@ -1405,22 +1408,22 @@
         <v>75</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration-requestdepartment.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration-requestdepartment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-16</t>
+    <t>2022-09-26</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -354,7 +354,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_Department_SsMix_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_Department_SsMix_VS</t>
   </si>
 </sst>
 </file>
@@ -702,7 +702,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="58.84765625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="54.6015625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration-requestdepartment.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration-requestdepartment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="112">
   <si>
     <t>Property</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Copyright</t>
+  </si>
+  <si>
+    <t>Copyright FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) 一般社団法人日本医療情報学会NeXEHRS課題研究会FHIR日本実装検討WG</t>
   </si>
   <si>
     <t>FHIR Version</t>
@@ -256,53 +259,53 @@
 </t>
   </si>
   <si>
+    <t>Extension.id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Extension.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Extension.id</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Extension.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -603,63 +606,63 @@
         <v>24</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -718,143 +721,143 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>22</v>
@@ -862,68 +865,68 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
@@ -932,23 +935,23 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J3" t="s" s="2">
         <v>83</v>
@@ -962,65 +965,65 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE3" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ3" t="s" s="2">
         <v>87</v>
@@ -1032,29 +1035,29 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J4" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L4" t="s" s="2">
         <v>90</v>
@@ -1062,38 +1065,38 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA4" t="s" s="2">
         <v>91</v>
@@ -1102,7 +1105,7 @@
         <v>92</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>93</v>
@@ -1111,28 +1114,28 @@
         <v>94</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
@@ -1142,75 +1145,75 @@
         <v>82</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
         <v>3</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>82</v>
@@ -1219,211 +1222,211 @@
         <v>82</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="X7" s="2"/>
       <c r="Y7" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration-requestdepartment.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationadministration-requestdepartment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26</t>
+    <t>2022-10-24</t>
   </si>
   <si>
     <t>Publisher</t>
